--- a/11.xlsx
+++ b/11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="17">
   <si>
     <t>420802239374869903505842406011</t>
   </si>
@@ -74,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,14 +89,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -110,24 +170,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,96 +231,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,13 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,169 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,47 +450,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +464,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,153 +487,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1138,6 +1131,421 @@
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
